--- a/テスト仕様書/独自機能テスト仕様書.xlsx
+++ b/テスト仕様書/独自機能テスト仕様書.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6660" windowHeight="2970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15860" windowHeight="3770" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="エラー表示機能" sheetId="1" r:id="rId1"/>
-    <sheet name="sql" sheetId="3" r:id="rId2"/>
+    <sheet name="トッピング全選択・全解除機能" sheetId="4" r:id="rId2"/>
+    <sheet name="sql" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <oleSize ref="A4:E10"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A4:C12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="139">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -600,6 +601,250 @@
     </rPh>
     <rPh sb="52" eb="54">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トッピング全選択・解除機能　ブラックボックステスト仕様書</t>
+    <rPh sb="5" eb="6">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>トッピングを全選択する</t>
+    <rPh sb="6" eb="9">
+      <t>ゼンセンタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トッピングを全解除する</t>
+    <rPh sb="6" eb="7">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面の挙動
+正常系</t>
+    <rPh sb="0" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択がある場合に正常に動作し、全選択できる。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>何も選択してない場合に正常に動作し、全選択できる。</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・SQLが実行されていること
+・一覧表示画面から「カツカレー」ページに遷移していること</t>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「全てチェックする」を選択する。</t>
+    <rPh sb="1" eb="2">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・全てのトッピングに選択がされている</t>
+    <rPh sb="1" eb="2">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全て選択している場合に正常に動作し、全選択できる。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・SQLが実行されていること
+・一覧表示画面から「カツカレー」ページに遷移していること
+・「全てチェックする」を選択しておくこと</t>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「全てチェックする」が選択されている状態で選択を外すと
+全てのチェックが外れる。</t>
+    <rPh sb="1" eb="2">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「全てチェックする」を再度選択する。</t>
+    <rPh sb="1" eb="2">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・全てのトッピングに選択が解除されている</t>
+    <rPh sb="1" eb="2">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイジョ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -836,7 +1081,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,30 +1089,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -903,11 +1124,44 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1192,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="23.5" customHeight="1"/>
@@ -1209,36 +1463,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="9"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="23">
         <v>44027</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="23.5" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -1270,150 +1524,150 @@
       </c>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="23.5" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="14">
         <v>44027</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" customFormat="1" ht="23.5" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" customFormat="1" ht="23.5" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" customFormat="1" ht="23.5" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" customFormat="1" ht="17.5" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" customFormat="1" ht="23.5" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="14">
         <v>44027</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" customFormat="1" ht="23.5" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" customFormat="1" ht="23.5" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" customFormat="1" ht="23.5" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" customFormat="1" ht="17.5" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" customFormat="1" ht="23.5" customHeight="1"/>
     <row r="15" spans="1:9" customFormat="1" ht="23.5" customHeight="1"/>
@@ -1482,11 +1736,6 @@
     <row r="78" spans="1:9" customFormat="1" ht="23.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
     <mergeCell ref="F9:F13"/>
     <mergeCell ref="G9:G13"/>
     <mergeCell ref="H9:H13"/>
@@ -1503,6 +1752,11 @@
     <mergeCell ref="G4:G8"/>
     <mergeCell ref="H4:H8"/>
     <mergeCell ref="I4:I8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1510,6 +1764,496 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="3" max="3" width="47.90625" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.5" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.5" customHeight="1">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="23">
+        <v>44027</v>
+      </c>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.5">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="13" hidden="1" customHeight="1">
+      <c r="A4" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="14">
+        <v>44027</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" customFormat="1" ht="13" customHeight="1">
+      <c r="A5" s="25"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" customFormat="1" ht="13" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" customFormat="1" ht="13" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" customFormat="1" ht="13" customHeight="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" customFormat="1" ht="13" customHeight="1">
+      <c r="A9" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="14">
+        <v>44027</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" customFormat="1" ht="13" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" customFormat="1" ht="13" customHeight="1">
+      <c r="A11" s="25"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" customFormat="1" ht="13" customHeight="1">
+      <c r="A12" s="25"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" customFormat="1" ht="13" customHeight="1">
+      <c r="A13" s="26"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" customFormat="1" ht="13" customHeight="1">
+      <c r="A14" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="14">
+        <v>44027</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" customFormat="1" ht="13" customHeight="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" customFormat="1" ht="13" customHeight="1">
+      <c r="A16" s="25"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" customFormat="1" ht="13" customHeight="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" customFormat="1" ht="13" customHeight="1">
+      <c r="A18" s="26"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" customFormat="1" ht="13" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="14">
+        <v>44027</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" customFormat="1" ht="13" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" customFormat="1" ht="13" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" customFormat="1" ht="13" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" customFormat="1" ht="24.5" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" customFormat="1"/>
+    <row r="25" spans="1:9" customFormat="1"/>
+    <row r="26" spans="1:9" customFormat="1"/>
+    <row r="27" spans="1:9" customFormat="1"/>
+    <row r="28" spans="1:9" customFormat="1"/>
+    <row r="29" spans="1:9" customFormat="1"/>
+    <row r="30" spans="1:9" customFormat="1"/>
+    <row r="31" spans="1:9" customFormat="1"/>
+    <row r="32" spans="1:9" customFormat="1"/>
+    <row r="33" spans="1:9" customFormat="1"/>
+    <row r="34" spans="1:9" customFormat="1"/>
+    <row r="35" spans="1:9" customFormat="1"/>
+    <row r="36" spans="1:9" customFormat="1"/>
+    <row r="37" spans="1:9" customFormat="1"/>
+    <row r="38" spans="1:9" customFormat="1"/>
+    <row r="39" spans="1:9" customFormat="1"/>
+    <row r="40" spans="1:9" customFormat="1"/>
+    <row r="41" spans="1:9" customFormat="1"/>
+    <row r="42" spans="1:9" customFormat="1"/>
+    <row r="43" spans="1:9" customFormat="1"/>
+    <row r="44" spans="1:9" customFormat="1"/>
+    <row r="45" spans="1:9" customFormat="1"/>
+    <row r="46" spans="1:9" customFormat="1"/>
+    <row r="47" spans="1:9" customFormat="1"/>
+    <row r="48" spans="1:9" customFormat="1"/>
+    <row r="49" spans="1:9" customFormat="1"/>
+    <row r="50" spans="1:9" customFormat="1"/>
+    <row r="51" spans="1:9" customFormat="1"/>
+    <row r="52" spans="1:9" customFormat="1"/>
+    <row r="53" spans="1:9" customFormat="1"/>
+    <row r="54" spans="1:9" customFormat="1"/>
+    <row r="55" spans="1:9" customFormat="1"/>
+    <row r="56" spans="1:9" customFormat="1"/>
+    <row r="57" spans="1:9" customFormat="1"/>
+    <row r="58" spans="1:9" customFormat="1"/>
+    <row r="59" spans="1:9" customFormat="1"/>
+    <row r="60" spans="1:9" customFormat="1"/>
+    <row r="61" spans="1:9" customFormat="1"/>
+    <row r="62" spans="1:9" customFormat="1"/>
+    <row r="63" spans="1:9" customFormat="1"/>
+    <row r="64" spans="1:9" customFormat="1"/>
+    <row r="65" spans="1:9" customFormat="1"/>
+    <row r="66" spans="1:9" customFormat="1"/>
+    <row r="67" spans="1:9" customFormat="1"/>
+    <row r="68" spans="1:9" customFormat="1"/>
+    <row r="69" spans="1:9" customFormat="1"/>
+    <row r="70" spans="1:9" customFormat="1"/>
+    <row r="71" spans="1:9" customFormat="1"/>
+    <row r="72" spans="1:9" customFormat="1"/>
+    <row r="73" spans="1:9" customFormat="1"/>
+    <row r="74" spans="1:9" customFormat="1"/>
+    <row r="75" spans="1:9" customFormat="1"/>
+    <row r="76" spans="1:9" customFormat="1"/>
+    <row r="77" spans="1:9" customFormat="1"/>
+    <row r="78" spans="1:9" customFormat="1"/>
+    <row r="79" spans="1:9" customFormat="1"/>
+    <row r="80" spans="1:9" customFormat="1"/>
+    <row r="81" spans="1:9" customFormat="1"/>
+    <row r="82" spans="1:9" customFormat="1"/>
+    <row r="83" spans="1:9" customFormat="1"/>
+    <row r="84" spans="1:9" customFormat="1"/>
+    <row r="85" spans="1:9" customFormat="1"/>
+    <row r="86" spans="1:9" customFormat="1"/>
+    <row r="87" spans="1:9" customFormat="1"/>
+    <row r="88" spans="1:9" customFormat="1"/>
+    <row r="89" spans="1:9" customFormat="1"/>
+    <row r="90" spans="1:9" customFormat="1"/>
+    <row r="91" spans="1:9" customFormat="1"/>
+    <row r="92" spans="1:9" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
